--- a/data/trans_orig/CoTrAQ_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ_R-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>76415</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65789</v>
+        <v>65308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86834</v>
+        <v>86570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6472751391239212</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5572657577636153</v>
+        <v>0.5531990761907746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7355363002563887</v>
+        <v>0.7332950530677824</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -763,19 +763,19 @@
         <v>56162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46729</v>
+        <v>46122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64457</v>
+        <v>64084</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6660715188808891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5542035229503659</v>
+        <v>0.5469998260323645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7644495831638355</v>
+        <v>0.7600288736185803</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -784,19 +784,19 @@
         <v>132577</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118521</v>
+        <v>117271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146183</v>
+        <v>145453</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6551065311814706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5856540815012594</v>
+        <v>0.5794756265557327</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7223392485357207</v>
+        <v>0.7187318145653003</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>41641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31222</v>
+        <v>31486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52267</v>
+        <v>52748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3527248608760788</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2644636997436113</v>
+        <v>0.2667049469322176</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4427342422363847</v>
+        <v>0.4468009238092254</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -834,19 +834,19 @@
         <v>28156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19861</v>
+        <v>20234</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37589</v>
+        <v>38196</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3339284811191109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2355504168361645</v>
+        <v>0.2399711263814197</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4457964770496341</v>
+        <v>0.4530001739676353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -855,19 +855,19 @@
         <v>69797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56191</v>
+        <v>56921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83853</v>
+        <v>85103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3448934688185294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2776607514642793</v>
+        <v>0.2812681854346996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4143459184987406</v>
+        <v>0.4205243734442672</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>132619</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120980</v>
+        <v>120510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142475</v>
+        <v>142469</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7790381729392637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7106660643252262</v>
+        <v>0.7079085806760578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8369348334667303</v>
+        <v>0.8368984825242295</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -980,19 +980,19 @@
         <v>79775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68380</v>
+        <v>69012</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89311</v>
+        <v>89146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6894958481483782</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5910088439772936</v>
+        <v>0.596475646032511</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7719168765805252</v>
+        <v>0.7704959636277278</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>193</v>
@@ -1001,19 +1001,19 @@
         <v>212393</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>195875</v>
+        <v>194952</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>225502</v>
+        <v>225332</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7428058181456609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6850359012502991</v>
+        <v>0.6818084217998238</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7886517754975512</v>
+        <v>0.7880570550183486</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>37615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27759</v>
+        <v>27765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49254</v>
+        <v>49724</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2209618270607364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1630651665332697</v>
+        <v>0.16310151747577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2893339356747745</v>
+        <v>0.2920914193239412</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1051,19 +1051,19 @@
         <v>35925</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26389</v>
+        <v>26554</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47320</v>
+        <v>46688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3105041518516218</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2280831234194748</v>
+        <v>0.2295040363722718</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4089911560227063</v>
+        <v>0.4035243539674888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>71</v>
@@ -1072,19 +1072,19 @@
         <v>73541</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60432</v>
+        <v>60602</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90059</v>
+        <v>90982</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2571941818543391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2113482245024489</v>
+        <v>0.2119429449816514</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3149640987497009</v>
+        <v>0.3181915782001762</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>101270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90752</v>
+        <v>89607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110622</v>
+        <v>111255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7262580080314114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6508258701377428</v>
+        <v>0.642613415543662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7933242868351199</v>
+        <v>0.797866361406077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1197,19 +1197,19 @@
         <v>48229</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39751</v>
+        <v>39425</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56390</v>
+        <v>55084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6682200159435309</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5507443797033232</v>
+        <v>0.5462309579612058</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.781278300026969</v>
+        <v>0.7631873171587342</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -1218,19 +1218,19 @@
         <v>149500</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135576</v>
+        <v>134798</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162962</v>
+        <v>162297</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7064630761350388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6406671656539352</v>
+        <v>0.6369898872292259</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.770081002443603</v>
+        <v>0.7669385123110293</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>38171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28819</v>
+        <v>28186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48689</v>
+        <v>49834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2737419919685887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2066757131648802</v>
+        <v>0.202133638593923</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3491741298622574</v>
+        <v>0.3573865844563379</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1268,19 +1268,19 @@
         <v>23947</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15786</v>
+        <v>17092</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32425</v>
+        <v>32751</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3317799840564691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.218721699973031</v>
+        <v>0.2368126828412658</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4492556202966766</v>
+        <v>0.4537690420387944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -1289,19 +1289,19 @@
         <v>62117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>48655</v>
+        <v>49320</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76041</v>
+        <v>76819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2935369238649612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.229918997556397</v>
+        <v>0.2330614876889703</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3593328343460649</v>
+        <v>0.3630101127707735</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>103866</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91531</v>
+        <v>91557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113127</v>
+        <v>114893</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7279197288809217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6414753686323598</v>
+        <v>0.6416573157114918</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.792824643562087</v>
+        <v>0.8051953744353202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1414,19 +1414,19 @@
         <v>66983</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57508</v>
+        <v>55877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76760</v>
+        <v>76185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6852033780387867</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5882852796182495</v>
+        <v>0.5715931493739811</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7852234612084926</v>
+        <v>0.7793433314532348</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -1435,19 +1435,19 @@
         <v>170850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156115</v>
+        <v>155906</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>184705</v>
+        <v>184975</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7105528417758233</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6492726657457163</v>
+        <v>0.6484045576190652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7681750228170042</v>
+        <v>0.7693008942899972</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>38823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29562</v>
+        <v>27796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51158</v>
+        <v>51132</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2720802711190783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2071753564379129</v>
+        <v>0.1948046255646791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3585246313676401</v>
+        <v>0.3583426842885081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1485,19 +1485,19 @@
         <v>30773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20996</v>
+        <v>21571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40248</v>
+        <v>41879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3147966219612133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2147765387915077</v>
+        <v>0.2206566685467651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4117147203817506</v>
+        <v>0.4284068506260189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>64</v>
@@ -1506,19 +1506,19 @@
         <v>69596</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55741</v>
+        <v>55471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84331</v>
+        <v>84540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2894471582241767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2318249771829958</v>
+        <v>0.2306991057100029</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3507273342542835</v>
+        <v>0.3515954423809348</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>49582</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39133</v>
+        <v>40644</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57735</v>
+        <v>58689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6177173484008764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4875375619664781</v>
+        <v>0.5063609039000863</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7192909777216617</v>
+        <v>0.731169230853001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1631,19 +1631,19 @@
         <v>20435</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12883</v>
+        <v>13833</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26888</v>
+        <v>28399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.380784738462067</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2400574490502029</v>
+        <v>0.2577582255912197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.501027383209925</v>
+        <v>0.5291972490855139</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -1652,19 +1652,19 @@
         <v>70018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57218</v>
+        <v>57330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80488</v>
+        <v>82462</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5227813342452655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4272137630107581</v>
+        <v>0.4280475004826132</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6009591807297786</v>
+        <v>0.615695183593846</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>30685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22532</v>
+        <v>21578</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41134</v>
+        <v>39623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3822826515991235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2807090222783384</v>
+        <v>0.268830769146999</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5124624380335218</v>
+        <v>0.4936390960999138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -1702,19 +1702,19 @@
         <v>33230</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26777</v>
+        <v>25266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40782</v>
+        <v>39832</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6192152615379329</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4989726167900749</v>
+        <v>0.4708027509144861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7599425509497971</v>
+        <v>0.7422417744087804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>60</v>
@@ -1723,19 +1723,19 @@
         <v>63915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53445</v>
+        <v>51471</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76715</v>
+        <v>76603</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4772186657547345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3990408192702213</v>
+        <v>0.384304816406154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5727862369892419</v>
+        <v>0.5719524995173868</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>82531</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72089</v>
+        <v>71765</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91758</v>
+        <v>91535</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7434703647281192</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6494009420186195</v>
+        <v>0.646488355006151</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8265870989750926</v>
+        <v>0.8245839617326786</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1848,19 +1848,19 @@
         <v>42193</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34242</v>
+        <v>34653</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47192</v>
+        <v>47335</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7905980861731849</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6416116084417599</v>
+        <v>0.6493100915208192</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8842540058239193</v>
+        <v>0.8869349459568999</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -1869,19 +1869,19 @@
         <v>124725</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112106</v>
+        <v>113242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135889</v>
+        <v>135550</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7587714369732395</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6820060640558244</v>
+        <v>0.6889138291605039</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8266910290198796</v>
+        <v>0.8246309012343599</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>28477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19250</v>
+        <v>19473</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38919</v>
+        <v>39243</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2565296352718808</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1734129010249076</v>
+        <v>0.1754160382673214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3505990579813805</v>
+        <v>0.353511644993849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1919,19 +1919,19 @@
         <v>11176</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6177</v>
+        <v>6034</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19127</v>
+        <v>18716</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2094019138268151</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1157459941760806</v>
+        <v>0.1130650540431</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.35838839155824</v>
+        <v>0.3506899084791807</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -1940,19 +1940,19 @@
         <v>39652</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28488</v>
+        <v>28827</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52271</v>
+        <v>51135</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2412285630267606</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1733089709801204</v>
+        <v>0.1753690987656401</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3179939359441757</v>
+        <v>0.3110861708394961</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>179867</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>164694</v>
+        <v>164250</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>194248</v>
+        <v>194781</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6915021348120803</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6331683020936737</v>
+        <v>0.6314623963519914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7467897814384061</v>
+        <v>0.7488393248101337</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>100</v>
@@ -2065,19 +2065,19 @@
         <v>104522</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90192</v>
+        <v>91885</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>117788</v>
+        <v>117832</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6067203942188626</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5235368939385382</v>
+        <v>0.5333651926918743</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6837248945830008</v>
+        <v>0.6839806430908201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>268</v>
@@ -2086,19 +2086,19 @@
         <v>284389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>262626</v>
+        <v>266282</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>303418</v>
+        <v>308314</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6577227296592948</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6073890396431992</v>
+        <v>0.6158454413900235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.701730324517252</v>
+        <v>0.7130553241536287</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>80244</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65863</v>
+        <v>65330</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>95417</v>
+        <v>95861</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3084978651879197</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2532102185615934</v>
+        <v>0.2511606751898662</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3668316979063262</v>
+        <v>0.3685376036480086</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -2136,19 +2136,19 @@
         <v>67752</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>54486</v>
+        <v>54442</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>82082</v>
+        <v>80389</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3932796057811375</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3162751054169991</v>
+        <v>0.3160193569091799</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4764631060614619</v>
+        <v>0.4666348073081256</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>136</v>
@@ -2157,19 +2157,19 @@
         <v>147996</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>128967</v>
+        <v>124071</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>169759</v>
+        <v>166103</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3422772703407052</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2982696754827477</v>
+        <v>0.2869446758463712</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3926109603568004</v>
+        <v>0.3841545586099764</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>251512</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>231890</v>
+        <v>233542</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>268079</v>
+        <v>267954</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.710346204833202</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6549299143473635</v>
+        <v>0.6595937272631449</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7571381507510131</v>
+        <v>0.7567845376818625</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>157</v>
@@ -2282,19 +2282,19 @@
         <v>171853</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>154343</v>
+        <v>155477</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185999</v>
+        <v>186361</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6806417960776806</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6112899672605953</v>
+        <v>0.6157829905939656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7366682067229343</v>
+        <v>0.7381012418025877</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>393</v>
@@ -2303,19 +2303,19 @@
         <v>423365</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>398469</v>
+        <v>395132</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>445837</v>
+        <v>445955</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6979813459027462</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6569364346728234</v>
+        <v>0.6514359107652895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7350294291986377</v>
+        <v>0.7352253222250088</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>102557</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85990</v>
+        <v>86115</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122179</v>
+        <v>120527</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2896537951667981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2428618492489869</v>
+        <v>0.2432154623181375</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3450700856526366</v>
+        <v>0.3404062727368554</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -2353,19 +2353,19 @@
         <v>80634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>66488</v>
+        <v>66126</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>98144</v>
+        <v>97010</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3193582039223195</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2633317932770656</v>
+        <v>0.2618987581974123</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3887100327394049</v>
+        <v>0.3842170094060344</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>165</v>
@@ -2374,19 +2374,19 @@
         <v>183191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>160719</v>
+        <v>160601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>208087</v>
+        <v>211424</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3020186540972539</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2649705708013624</v>
+        <v>0.2647746777749912</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3430635653271772</v>
+        <v>0.3485640892347105</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>977663</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>546</v>
@@ -2499,19 +2499,19 @@
         <v>590152</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1467</v>
@@ -2520,19 +2520,19 @@
         <v>1567815</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>398213</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>363820</v>
+        <v>365362</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>433212</v>
+        <v>433754</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2894251821981535</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2644278577024006</v>
+        <v>0.2655487443565437</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3148629711980049</v>
+        <v>0.3152568326362643</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>286</v>
@@ -2570,19 +2570,19 @@
         <v>311593</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>282950</v>
+        <v>281744</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>342444</v>
+        <v>341111</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3455442571823424</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3137803527508142</v>
+        <v>0.312442865836102</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3797567787887939</v>
+        <v>0.3782784690918711</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>658</v>
@@ -2591,19 +2591,19 @@
         <v>709806</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>662111</v>
+        <v>666414</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>755504</v>
+        <v>761652</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3116435876612533</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2907029917106331</v>
+        <v>0.2925921065120196</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3317077310862672</v>
+        <v>0.3344070328302141</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>63782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50015</v>
+        <v>52184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75379</v>
+        <v>76068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.479376606091596</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3759081134907323</v>
+        <v>0.3922112539327126</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.566545862881269</v>
+        <v>0.5717171266384731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -2960,19 +2960,19 @@
         <v>45828</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36254</v>
+        <v>35389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55409</v>
+        <v>56115</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4579565805393228</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3622857293044135</v>
+        <v>0.3536434893088872</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5537052267633762</v>
+        <v>0.5607550847832398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -2981,19 +2981,19 @@
         <v>109609</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94017</v>
+        <v>93747</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124948</v>
+        <v>124883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4701818091946954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4032974076756662</v>
+        <v>0.4021399315617909</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5359816637607872</v>
+        <v>0.5357018905690962</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>69269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57672</v>
+        <v>56983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83036</v>
+        <v>80867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5206233939084041</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4334541371187309</v>
+        <v>0.428282873361527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6240918865092677</v>
+        <v>0.6077887460672883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -3031,19 +3031,19 @@
         <v>54242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44661</v>
+        <v>43955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63816</v>
+        <v>64681</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5420434194606772</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4462947732366238</v>
+        <v>0.4392449152167605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6377142706955866</v>
+        <v>0.6463565106911129</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>114</v>
@@ -3052,19 +3052,19 @@
         <v>123511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108172</v>
+        <v>108237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>139103</v>
+        <v>139373</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5298181908053046</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4640183362392127</v>
+        <v>0.4642981094309038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5967025923243336</v>
+        <v>0.5978600684382092</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>91727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78379</v>
+        <v>78307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104024</v>
+        <v>104729</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5386278681030037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4602478079790358</v>
+        <v>0.4598282304259589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6108390794311409</v>
+        <v>0.61498065399017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -3177,19 +3177,19 @@
         <v>59436</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49206</v>
+        <v>48848</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70689</v>
+        <v>70038</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5228370509419289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4328451296726017</v>
+        <v>0.429701310194938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6218286623638111</v>
+        <v>0.6160966326992349</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>141</v>
@@ -3198,19 +3198,19 @@
         <v>151163</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134497</v>
+        <v>133204</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>167396</v>
+        <v>168882</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5323065699849981</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4736178697929085</v>
+        <v>0.4690652602298513</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5894697150556324</v>
+        <v>0.5947028104452277</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>78570</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66273</v>
+        <v>65568</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91918</v>
+        <v>91990</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4613721318969963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3891609205688591</v>
+        <v>0.3850193460098301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5397521920209641</v>
+        <v>0.5401717695740411</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -3248,19 +3248,19 @@
         <v>54244</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42991</v>
+        <v>43642</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64474</v>
+        <v>64832</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4771629490580711</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3781713376361888</v>
+        <v>0.3839033673007651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5671548703273983</v>
+        <v>0.5702986898050619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>125</v>
@@ -3269,19 +3269,19 @@
         <v>132814</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>116581</v>
+        <v>115095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>149480</v>
+        <v>150773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4676934300150018</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4105302849443677</v>
+        <v>0.4052971895547728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5263821302070915</v>
+        <v>0.5309347397701489</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>54179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43625</v>
+        <v>43170</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65909</v>
+        <v>64852</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4314023196750006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3473597233753966</v>
+        <v>0.343739347655508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5247986999432508</v>
+        <v>0.5163817773233957</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -3394,19 +3394,19 @@
         <v>37177</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28018</v>
+        <v>28748</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46453</v>
+        <v>46083</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4408351682655491</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3322250670868465</v>
+        <v>0.3408855960239565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5508281594597366</v>
+        <v>0.5464417115590351</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -3415,19 +3415,19 @@
         <v>91356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77697</v>
+        <v>78855</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104497</v>
+        <v>104776</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4351918349881391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3701231344732708</v>
+        <v>0.3756410859016738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4977900427331181</v>
+        <v>0.4991180401092203</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>71410</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59680</v>
+        <v>60737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81964</v>
+        <v>82419</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5685976803249995</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4752013000567492</v>
+        <v>0.4836182226766042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6526402766246034</v>
+        <v>0.6562606523444919</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -3465,19 +3465,19 @@
         <v>47156</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37880</v>
+        <v>38250</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56315</v>
+        <v>55585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.559164831734451</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4491718405402634</v>
+        <v>0.4535582884409649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6677749329131534</v>
+        <v>0.6591144039760433</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -3486,19 +3486,19 @@
         <v>118566</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>105425</v>
+        <v>105146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132225</v>
+        <v>131067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5648081650118609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5022099572668819</v>
+        <v>0.5008819598907798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6298768655267293</v>
+        <v>0.6243589140983262</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>81709</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71714</v>
+        <v>72317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90769</v>
+        <v>91347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7283780143787447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6392730795834248</v>
+        <v>0.6446537559598894</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8091405979237515</v>
+        <v>0.8142910776784777</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -3611,19 +3611,19 @@
         <v>56016</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46600</v>
+        <v>47043</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64122</v>
+        <v>64742</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6843009885141236</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5692695112773118</v>
+        <v>0.5746805752328484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7833258978301029</v>
+        <v>0.7908954110029</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -3632,19 +3632,19 @@
         <v>137726</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125272</v>
+        <v>124802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150755</v>
+        <v>150413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7097833332535002</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6456032179002803</v>
+        <v>0.6431810638814743</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7769303635608658</v>
+        <v>0.7751697088233905</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>30471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21411</v>
+        <v>20833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40466</v>
+        <v>39863</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2716219856212552</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1908594020762484</v>
+        <v>0.1857089223215223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3607269204165752</v>
+        <v>0.3553462440401104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -3682,19 +3682,19 @@
         <v>25843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17737</v>
+        <v>17117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35259</v>
+        <v>34816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3156990114858764</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2166741021698969</v>
+        <v>0.2091045889970999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4307304887226875</v>
+        <v>0.4253194247671513</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -3703,19 +3703,19 @@
         <v>56313</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43284</v>
+        <v>43626</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68767</v>
+        <v>69237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2902166667464998</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2230696364391343</v>
+        <v>0.2248302911766096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3543967820997198</v>
+        <v>0.3568189361185259</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>48038</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38969</v>
+        <v>38607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57255</v>
+        <v>56774</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5935723536131599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4815117725194751</v>
+        <v>0.4770422367739061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7074660373870217</v>
+        <v>0.7015227094990188</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3828,19 +3828,19 @@
         <v>29909</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23253</v>
+        <v>23033</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36636</v>
+        <v>37214</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5397062800117767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4195876626039033</v>
+        <v>0.4156172735059026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6610903630258353</v>
+        <v>0.6715136201737784</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -3849,19 +3849,19 @@
         <v>77947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66550</v>
+        <v>67338</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88748</v>
+        <v>89495</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.571678634983163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4880891600244734</v>
+        <v>0.4938667788740142</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6508921707079282</v>
+        <v>0.6563716742588662</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>32892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23675</v>
+        <v>24156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41961</v>
+        <v>42323</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4064276463868401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2925339626129782</v>
+        <v>0.2984772905009815</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.518488227480525</v>
+        <v>0.522957763226094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -3899,19 +3899,19 @@
         <v>25509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18782</v>
+        <v>18204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32165</v>
+        <v>32385</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4602937199882233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3389096369741647</v>
+        <v>0.3284863798262215</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5804123373960967</v>
+        <v>0.5843827264940975</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -3920,19 +3920,19 @@
         <v>58401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47600</v>
+        <v>46853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69798</v>
+        <v>69010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.428321365016837</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3491078292920719</v>
+        <v>0.3436283257411338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5119108399755268</v>
+        <v>0.5061332211259862</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>51625</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41586</v>
+        <v>41349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61685</v>
+        <v>61942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4802269379955613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3868404065010533</v>
+        <v>0.3846307362685145</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5738062531875929</v>
+        <v>0.5761921973865948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4045,19 +4045,19 @@
         <v>27054</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18973</v>
+        <v>18586</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34759</v>
+        <v>35372</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3580058329725828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2510673515594728</v>
+        <v>0.2459508140569826</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.459971228093098</v>
+        <v>0.4680819218166652</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -4066,19 +4066,19 @@
         <v>78680</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65379</v>
+        <v>64876</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92155</v>
+        <v>90942</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4297762027203733</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3571236583337559</v>
+        <v>0.3543749413456673</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5033848275901821</v>
+        <v>0.4967603767602772</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>55877</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45817</v>
+        <v>45560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65916</v>
+        <v>66153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5197730620044386</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4261937468124072</v>
+        <v>0.4238078026134052</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6131595934989469</v>
+        <v>0.6153692637314853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -4116,19 +4116,19 @@
         <v>48514</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40809</v>
+        <v>40196</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56595</v>
+        <v>56982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6419941670274172</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5400287719069017</v>
+        <v>0.5319180781833348</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7489326484405271</v>
+        <v>0.7540491859430174</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -4137,19 +4137,19 @@
         <v>104391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>90916</v>
+        <v>92129</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117692</v>
+        <v>118195</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5702237972796267</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4966151724098178</v>
+        <v>0.5032396232397227</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6428763416662442</v>
+        <v>0.6456250586543328</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>127988</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109465</v>
+        <v>111327</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>147024</v>
+        <v>148885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3566379841630859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3050225884659642</v>
+        <v>0.3102107927260474</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4096802092249283</v>
+        <v>0.4148671930513818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>92</v>
@@ -4262,19 +4262,19 @@
         <v>96578</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81544</v>
+        <v>80860</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>112697</v>
+        <v>114048</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3402470262164439</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2872829721726429</v>
+        <v>0.2848714808783036</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.397036963304614</v>
+        <v>0.401795405125046</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>202</v>
@@ -4283,19 +4283,19 @@
         <v>224566</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>198943</v>
+        <v>199381</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248816</v>
+        <v>246202</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3493992162655457</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3095328763850262</v>
+        <v>0.3102131442533919</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3871295558479084</v>
+        <v>0.38306233452105</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>230887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211851</v>
+        <v>209990</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>249410</v>
+        <v>247548</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6433620158369141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5903197907750719</v>
+        <v>0.5851328069486187</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6949774115340359</v>
+        <v>0.6897892072739525</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>181</v>
@@ -4333,19 +4333,19 @@
         <v>187268</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>171149</v>
+        <v>169798</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>202302</v>
+        <v>202986</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6597529737835561</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6029630366953861</v>
+        <v>0.598204594874954</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7127170278273572</v>
+        <v>0.7151285191216964</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>383</v>
@@ -4354,19 +4354,19 @@
         <v>418155</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>393905</v>
+        <v>396519</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>443778</v>
+        <v>443340</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6506007837344543</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6128704441520916</v>
+        <v>0.6169376654789502</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6904671236149738</v>
+        <v>0.6897868557466081</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>250521</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>233651</v>
+        <v>233745</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>264160</v>
+        <v>264998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7639874767071445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7125409708357971</v>
+        <v>0.7128261269927882</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.805579777589145</v>
+        <v>0.8081342887385027</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>155</v>
@@ -4479,19 +4479,19 @@
         <v>162431</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>146286</v>
+        <v>147420</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175653</v>
+        <v>176766</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6847630422242167</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6167008497984019</v>
+        <v>0.6214845648992031</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.740504551842471</v>
+        <v>0.7451973696073847</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>394</v>
@@ -4500,19 +4500,19 @@
         <v>412951</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>390966</v>
+        <v>390409</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>435101</v>
+        <v>433647</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7307333287738982</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6918287563717724</v>
+        <v>0.6908432239720267</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7699281104454417</v>
+        <v>0.7673551891780837</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>77392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63753</v>
+        <v>62915</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>94262</v>
+        <v>94168</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2360125232928555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.194420222410855</v>
+        <v>0.1918657112614974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2874590291642032</v>
+        <v>0.2871738730072119</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>73</v>
@@ -4550,19 +4550,19 @@
         <v>74776</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61554</v>
+        <v>60441</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>90921</v>
+        <v>89787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3152369577757833</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2594954481575289</v>
+        <v>0.2548026303926152</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.383299150201598</v>
+        <v>0.3785154351007967</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>148</v>
@@ -4571,19 +4571,19 @@
         <v>152168</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130018</v>
+        <v>131472</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>174153</v>
+        <v>174710</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2692666712261018</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2300718895545582</v>
+        <v>0.2326448108219162</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3081712436282275</v>
+        <v>0.3091567760279733</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>769570</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>498</v>
@@ -4696,19 +4696,19 @@
         <v>514429</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1217</v>
@@ -4717,19 +4717,19 @@
         <v>1283998</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5244409802768321</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>646767</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>607493</v>
+        <v>610998</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>682954</v>
+        <v>689230</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4566476881107582</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4289183388126102</v>
+        <v>0.4313934183143039</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4821972040575991</v>
+        <v>0.4866284555824158</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>510</v>
@@ -4767,19 +4767,19 @@
         <v>517553</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>487672</v>
+        <v>484154</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>550978</v>
+        <v>549169</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5015137588781524</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4725583142435112</v>
+        <v>0.4691495103933734</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5339029316886295</v>
+        <v>0.5321495928987855</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1108</v>
@@ -4788,19 +4788,19 @@
         <v>1164320</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1114323</v>
+        <v>1116838</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1214208</v>
+        <v>1211571</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4755590197231679</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.455138109209918</v>
+        <v>0.4561654047919837</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.495935477821412</v>
+        <v>0.4948586857866573</v>
       </c>
     </row>
     <row r="30">
